--- a/target/classes/sum_app_notes.xlsx
+++ b/target/classes/sum_app_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB870F0-4537-4EF7-95C6-2ECDA736CDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA365E5-949D-4CEF-9860-6CB04E10095A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4036" uniqueCount="1991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4078" uniqueCount="2010">
   <si>
     <t>[Available While Supplies Last]</t>
   </si>
@@ -6080,17 +6080,82 @@
   <si>
     <t>Conventional Cab w/19000, 21000, 23000 lb Taperleaf Springs (EXC Low Profile Vehicle) OEM #'S 15123676, 15174898, 15588554, 15887728, 19152843, 22064230, 88982682, 22064233, 88982684</t>
   </si>
+  <si>
+    <t>COLOR: ALUMINUM</t>
+  </si>
+  <si>
+    <t>RESERVOIR: REMOTE</t>
+  </si>
+  <si>
+    <t>SERIES: PERFORMANCE</t>
+  </si>
+  <si>
+    <t>SIZE: 2.0</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: XJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: MJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: ZJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: WJ</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: JT</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: JL</t>
+  </si>
+  <si>
+    <t>Manufacturer Body Code: JK</t>
+  </si>
+  <si>
+    <t>Body Type: Extended Cab Pickup</t>
+  </si>
+  <si>
+    <t>Body Type: Standard Cab Pickup</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis</t>
+  </si>
+  <si>
+    <t>Fits cab &amp; chassis models.</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis - Conventional</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis - Crew Cab</t>
+  </si>
+  <si>
+    <t>Body Type: Cab &amp; Chassis - Extended Cab</t>
+  </si>
+  <si>
+    <t>Lift: 0-2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6448,271 +6513,272 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -6993,10 +7059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2018"/>
+  <dimension ref="A1:B2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1925" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1939" sqref="B1939"/>
+    <sheetView tabSelected="1" topLeftCell="A2024" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2042" sqref="B2042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23149,6 +23215,174 @@
         <v>1989</v>
       </c>
     </row>
+    <row r="2019" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2019" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2019" s="19" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2020" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2020" s="19" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2021" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2021" s="19" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2022" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2022" s="19" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2023" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2023" s="19" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2024" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2024" s="19" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2025" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2025" s="19" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2026" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2026" s="19" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2027" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2027" s="19" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2028" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2028" s="19" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2029" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2029" s="19" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2030" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2030" s="19" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2031" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2031" s="19" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2032" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2032" s="19" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2033" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2033" s="19" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2034" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2034" s="19" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2035" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2035" s="19" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2036" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2036" s="19" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2037" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2037" s="19" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2038" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2038" s="19" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2039" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2039" s="19" t="s">
+        <v>2009</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
